--- a/teaching/traditional_assets/database/data/finland/finland_semiconductor.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_semiconductor.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.177</v>
+        <v>0.163</v>
       </c>
       <c r="G2">
-        <v>0.3754266211604099</v>
+        <v>-0.5034013605442178</v>
       </c>
       <c r="H2">
-        <v>-4.726962457337884</v>
+        <v>-2.659863945578231</v>
       </c>
       <c r="I2">
-        <v>-4.761486171654668</v>
+        <v>-3.034013605442177</v>
       </c>
       <c r="J2">
-        <v>-4.761486171654668</v>
+        <v>-3.034013605442177</v>
       </c>
       <c r="K2">
-        <v>-5.4</v>
+        <v>-6.37</v>
       </c>
       <c r="L2">
-        <v>-9.215017064846418</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.002</v>
+        <v>0.26</v>
       </c>
       <c r="V2">
-        <v>0.0001626016260162602</v>
+        <v>0.0143646408839779</v>
       </c>
       <c r="W2">
-        <v>0.6691449814126395</v>
+        <v>0.7406976744186047</v>
       </c>
       <c r="X2">
-        <v>0.1978245306507333</v>
+        <v>0.1421725538570773</v>
       </c>
       <c r="Y2">
-        <v>0.4713204507619062</v>
+        <v>0.5985251205615274</v>
       </c>
       <c r="Z2">
-        <v>0.0819448106452334</v>
+        <v>0.2094912355707567</v>
       </c>
       <c r="AA2">
-        <v>-0.390179082726139</v>
+        <v>-0.6355992589425679</v>
       </c>
       <c r="AB2">
-        <v>0.1345314453711139</v>
+        <v>0.0838509377116391</v>
       </c>
       <c r="AC2">
-        <v>-0.5247105280972529</v>
+        <v>-0.719450196654207</v>
       </c>
       <c r="AD2">
-        <v>16.1</v>
+        <v>18.5</v>
       </c>
       <c r="AE2">
-        <v>0.6361544829481743</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>16.73615448294818</v>
+        <v>18.5</v>
       </c>
       <c r="AG2">
-        <v>16.73415448294818</v>
+        <v>18.24</v>
       </c>
       <c r="AH2">
-        <v>0.5763901859930067</v>
+        <v>0.5054644808743169</v>
       </c>
       <c r="AI2">
-        <v>2.05701041173984</v>
+        <v>1.161330822347772</v>
       </c>
       <c r="AJ2">
-        <v>0.5763610058896732</v>
+        <v>0.5019262520638414</v>
       </c>
       <c r="AK2">
-        <v>2.057270306093692</v>
+        <v>1.164007657945118</v>
       </c>
       <c r="AL2">
-        <v>2.29</v>
+        <v>1.65</v>
       </c>
       <c r="AM2">
-        <v>2.29</v>
+        <v>1.65</v>
       </c>
       <c r="AN2">
-        <v>-6.756189676877885</v>
+        <v>-4.07488986784141</v>
       </c>
       <c r="AO2">
-        <v>-1.270742358078603</v>
+        <v>-2.703030303030303</v>
       </c>
       <c r="AP2">
-        <v>-7.02230569993629</v>
+        <v>-4.017621145374449</v>
       </c>
       <c r="AQ2">
-        <v>-1.270742358078603</v>
+        <v>-2.703030303030303</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.177</v>
+        <v>0.163</v>
       </c>
       <c r="G3">
-        <v>0.3754266211604099</v>
+        <v>-0.5034013605442178</v>
       </c>
       <c r="H3">
-        <v>-4.726962457337884</v>
+        <v>-2.659863945578231</v>
       </c>
       <c r="I3">
-        <v>-4.761486171654668</v>
+        <v>-3.034013605442177</v>
       </c>
       <c r="J3">
-        <v>-4.761486171654668</v>
+        <v>-3.034013605442177</v>
       </c>
       <c r="K3">
-        <v>-5.4</v>
+        <v>-6.37</v>
       </c>
       <c r="L3">
-        <v>-9.215017064846418</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002</v>
+        <v>0.26</v>
       </c>
       <c r="V3">
-        <v>0.0001626016260162602</v>
+        <v>0.0143646408839779</v>
       </c>
       <c r="W3">
-        <v>0.6691449814126395</v>
+        <v>0.7406976744186047</v>
       </c>
       <c r="X3">
-        <v>0.1978245306507333</v>
+        <v>0.1421725538570773</v>
       </c>
       <c r="Y3">
-        <v>0.4713204507619062</v>
+        <v>0.5985251205615274</v>
       </c>
       <c r="Z3">
-        <v>0.0819448106452334</v>
+        <v>0.2094912355707567</v>
       </c>
       <c r="AA3">
-        <v>-0.390179082726139</v>
+        <v>-0.6355992589425679</v>
       </c>
       <c r="AB3">
-        <v>0.1345314453711139</v>
+        <v>0.0838509377116391</v>
       </c>
       <c r="AC3">
-        <v>-0.5247105280972529</v>
+        <v>-0.719450196654207</v>
       </c>
       <c r="AD3">
-        <v>16.1</v>
+        <v>18.5</v>
       </c>
       <c r="AE3">
-        <v>0.6361544829481743</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>16.73615448294818</v>
+        <v>18.5</v>
       </c>
       <c r="AG3">
-        <v>16.73415448294818</v>
+        <v>18.24</v>
       </c>
       <c r="AH3">
-        <v>0.5763901859930067</v>
+        <v>0.5054644808743169</v>
       </c>
       <c r="AI3">
-        <v>2.05701041173984</v>
+        <v>1.161330822347772</v>
       </c>
       <c r="AJ3">
-        <v>0.5763610058896732</v>
+        <v>0.5019262520638414</v>
       </c>
       <c r="AK3">
-        <v>2.057270306093692</v>
+        <v>1.164007657945118</v>
       </c>
       <c r="AL3">
-        <v>2.29</v>
+        <v>1.65</v>
       </c>
       <c r="AM3">
-        <v>2.29</v>
+        <v>1.65</v>
       </c>
       <c r="AN3">
-        <v>-6.756189676877885</v>
+        <v>-4.07488986784141</v>
       </c>
       <c r="AO3">
-        <v>-1.270742358078603</v>
+        <v>-2.703030303030303</v>
       </c>
       <c r="AP3">
-        <v>-7.02230569993629</v>
+        <v>-4.017621145374449</v>
       </c>
       <c r="AQ3">
-        <v>-1.270742358078603</v>
+        <v>-2.703030303030303</v>
       </c>
     </row>
   </sheetData>
